--- a/CSV/dataSeveralAnal.xlsx
+++ b/CSV/dataSeveralAnal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditte\aauRepo\esd7_git\3Dprinter-BLDC-control\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC197C4-8E2A-4697-8570-59E534C8B6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF61BB2-89A5-4FF4-9741-35E1C5EC335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C07BAF3-E74C-422E-BC89-5E0FDF503FC7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>N:0.250000</t>
   </si>
@@ -107,9 +107,6 @@
     <t>voltage</t>
   </si>
   <si>
-    <t>SteadyState Value</t>
-  </si>
-  <si>
     <t>step for 2.75 V</t>
   </si>
   <si>
@@ -123,6 +120,33 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>step for 1.25V</t>
+  </si>
+  <si>
+    <t>steady</t>
+  </si>
+  <si>
+    <t>T =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tau = </t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>step for 1.5V</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
   </si>
 </sst>
 </file>
@@ -4746,534 +4770,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dataSeveralAnal!$L$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SteadyState Value</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>dataSeveralAnal!$K$58:$K$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dataSeveralAnal!$L$58:$L$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3.465635893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.479963111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8395106549999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.470611829999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.19492614</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.444714380000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.650883309999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.211004000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.063184079999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.714564660000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.024737930000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.98094603</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.053917139999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.21629824</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.66147831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.79831779</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.81838434</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.86034903</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.07381062</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.18146162</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D468-489B-9D26-CE8277582BF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="726265151"/>
-        <c:axId val="726260831"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="726265151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>"Volatge" to PWM</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="726260831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="726260831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Steady state Value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="726265151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -7001,7 +6497,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7093,158 +6589,155 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0153999999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0312000000000001E-2</c:v>
+                  <c:v>2.0157999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0472999999999999E-2</c:v>
+                  <c:v>4.0318999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0631999999999995E-2</c:v>
+                  <c:v>6.047799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.100783</c:v>
+                  <c:v>8.0628999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.120947</c:v>
+                  <c:v>0.10079299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14113400000000001</c:v>
+                  <c:v>0.12097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16129100000000002</c:v>
+                  <c:v>0.14113699999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18148200000000003</c:v>
+                  <c:v>0.16132799999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20163800000000004</c:v>
+                  <c:v>0.18148399999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22179400000000005</c:v>
+                  <c:v>0.20163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24195900000000004</c:v>
+                  <c:v>0.22180499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26212500000000005</c:v>
+                  <c:v>0.24197099999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28227900000000006</c:v>
+                  <c:v>0.26212499999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30244100000000007</c:v>
+                  <c:v>0.28228699999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32260800000000006</c:v>
+                  <c:v>0.30245399999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34276300000000004</c:v>
+                  <c:v>0.32260899999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36295400000000005</c:v>
+                  <c:v>0.34279999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38312700000000005</c:v>
+                  <c:v>0.36297299999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40328400000000003</c:v>
+                  <c:v>0.38312999999999992</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42344600000000004</c:v>
+                  <c:v>0.40329199999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.44360500000000003</c:v>
+                  <c:v>0.42345099999999991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.46375900000000003</c:v>
+                  <c:v>0.44360499999999992</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48393200000000003</c:v>
+                  <c:v>0.46377799999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.50409599999999999</c:v>
+                  <c:v>0.48394199999999993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.52424899999999997</c:v>
+                  <c:v>0.50409499999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.54440899999999992</c:v>
+                  <c:v>0.52425499999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5645659999999999</c:v>
+                  <c:v>0.5444119999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0.56457099999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.58472499999999994</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.60487899999999994</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62503699999999995</c:v>
+                  <c:v>0.60488299999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6452199999999999</c:v>
+                  <c:v>0.6250659999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66537899999999994</c:v>
+                  <c:v>0.64522499999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.68553499999999989</c:v>
+                  <c:v>0.66538099999999989</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.70570799999999989</c:v>
+                  <c:v>0.68555399999999989</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.72586299999999992</c:v>
+                  <c:v>0.70570899999999992</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.74602499999999994</c:v>
+                  <c:v>0.72587099999999993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.76618799999999998</c:v>
+                  <c:v>0.74603399999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78634599999999999</c:v>
+                  <c:v>0.76619199999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80650199999999994</c:v>
+                  <c:v>0.78634799999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.82669799999999993</c:v>
+                  <c:v>0.80654399999999993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.84685799999999989</c:v>
+                  <c:v>0.82670399999999988</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.86701299999999992</c:v>
+                  <c:v>0.84685899999999992</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.88719799999999993</c:v>
+                  <c:v>0.86704399999999993</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.90736099999999997</c:v>
+                  <c:v>0.88720699999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.92752099999999993</c:v>
+                  <c:v>0.90736699999999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.94768899999999989</c:v>
+                  <c:v>0.92753499999999989</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.96787299999999987</c:v>
+                  <c:v>0.94771899999999987</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.98802999999999985</c:v>
+                  <c:v>0.96787599999999985</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0081889999999998</c:v>
+                  <c:v>0.98803499999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7255,9 +6748,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.52910999999999997</c:v>
                 </c:pt>
@@ -7605,7 +7095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7686,65 +7176,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0153999999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0312000000000001E-2</c:v>
+                  <c:v>2.0157999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0472999999999999E-2</c:v>
+                  <c:v>4.0318999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0631999999999995E-2</c:v>
+                  <c:v>6.047799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.100783</c:v>
+                  <c:v>8.0628999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.120947</c:v>
+                  <c:v>0.10079299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14113400000000001</c:v>
+                  <c:v>0.12097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16129100000000002</c:v>
+                  <c:v>0.14113699999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18148200000000003</c:v>
+                  <c:v>0.16132799999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20163800000000004</c:v>
+                  <c:v>0.18148399999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22179400000000005</c:v>
+                  <c:v>0.20163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24195900000000004</c:v>
+                  <c:v>0.22180499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26212500000000005</c:v>
+                  <c:v>0.24197099999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28227900000000006</c:v>
+                  <c:v>0.26212499999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30244100000000007</c:v>
+                  <c:v>0.28228699999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32260800000000006</c:v>
+                  <c:v>0.30245399999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34276300000000004</c:v>
+                  <c:v>0.32260899999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36295400000000005</c:v>
+                  <c:v>0.34279999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38312700000000005</c:v>
+                  <c:v>0.36297299999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7755,9 +7242,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.52910999999999997</c:v>
                 </c:pt>
@@ -7965,6 +7449,2095 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Step respons at 1.25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>V aprox 20% duty cycle</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$D$77:$D$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0153999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0316999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0470999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0629999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10079099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.120945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16125500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18141000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.201571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22172600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24190400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26206099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28221499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.302373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32256600000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.342721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36290499999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38305799999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40321699999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42337199999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.44354699999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46370099999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48385899999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50401799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.524173</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54433100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56450299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.584677</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60483900000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62499700000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64515500000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66531499999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68548399999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70564300000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72580299999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74599599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76615100000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78630900000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80647500000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82663300000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84679000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86694500000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.88709800000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90725100000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92741700000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94756800000000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.96771800000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98788100000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$E$77:$E$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="1">
+                  <c:v>1.005298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5449950000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4444679999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0793980000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5608909999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6190959999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7778270000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.888954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4180530000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7355250000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9471450000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.211695000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.687851999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.740829</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.010645999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.005354000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.217022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.375737000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.222314000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.269926999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.269902999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.058235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.904859999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.481571000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.481571000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.746109000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.423349999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.851933000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.640288</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.957746999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.587376000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.428637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.428654999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.746119999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.799037999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.799026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.904847999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.904847999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.693192</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.587358</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.693192</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.640286</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.481547000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72CD-4392-9C36-F11ED2F9B980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="848625967"/>
+        <c:axId val="848609647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="848625967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848609647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848609647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [rad/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848625967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$Q$78:$Q$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0164999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0322999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0476999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0638999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10079899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12095599999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14114599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.161306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18146300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20164800000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22180500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24198900000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26216200000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28231900000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30248100000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32264100000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34279400000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36295000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38311400000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40327100000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42345200000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44361300000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46377700000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48393200000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50412299999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.524281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54443900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56462599999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58478699999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60494799999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62510999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64525999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6654159999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68559899999999985</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70577999999999985</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72594999999999987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74611199999999989</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76626899999999987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78642299999999987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80657799999999991</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82673999999999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84690599999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86705999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88721599999999989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90737599999999985</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92753399999999986</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94768799999999986</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96785699999999986</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9880469999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$R$78:$R$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.910072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4867849999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9682789999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0794069999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5714760000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8307450000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9471570000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5238689999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6826080000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.2646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.899532000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.111188</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.058282999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.322832</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.693192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.746143999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.640286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.957765</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.957741</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.105896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.851931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.169409</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.433909999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.380981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.380981</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.910133999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.211715999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.48686</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.910138</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.857224</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.539762</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.592668</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.645567</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.751412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.592662000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.698496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.539744000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.486815</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.592649</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.539768</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.899544000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.592649</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.486863</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.433934000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.169409</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.322832</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.328148000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4837-4EAD-ACAC-A4F07AA2F2E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="848632687"/>
+        <c:axId val="848626927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="848632687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848626927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848626927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848632687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Speed to Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12562364846487964"/>
+          <c:y val="0.18879698401304063"/>
+          <c:w val="0.83741362612585468"/>
+          <c:h val="0.62862223634519243"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataSeveralAnal!$L$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOSFET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$K$58:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$L$58:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.465635893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.479963111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8395106549999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.470611829999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.19492614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.444714380000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.650883309999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.211004000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.063184079999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.714564660000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.024737930000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.98094603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.053917139999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.21629824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.66147831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.79831779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.81838434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.86034903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.07381062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.18146162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0E1-47FF-BD29-610D10D8899F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataSeveralAnal!$M$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$K$58:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dataSeveralAnal!$M$58:$M$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0E1-47FF-BD29-610D10D8899F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="848654767"/>
+        <c:axId val="848655727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="848654767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43024835043405829"/>
+              <c:y val="0.88904514122291345"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848655727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848655727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Speed [rad/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848654767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6876387148694012"/>
+          <c:y val="5.2412134208794578E-2"/>
+          <c:w val="0.24808714055910461"/>
+          <c:h val="8.263903214922641E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8170,6 +9743,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10789,6 +12442,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10829,42 +13514,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>65809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>542635</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB79F690-0142-B4B7-4E23-A1B7D2AEE840}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>512885</xdr:colOff>
       <xdr:row>60</xdr:row>
@@ -10893,7 +13542,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10929,7 +13578,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10965,7 +13614,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>169130</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>154843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467091</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>150446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D40B533-E88F-DFB8-1C11-1D6CB27A55EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35891</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>14173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC9EC68-53F1-1643-D34E-FBDF546611E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367673</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47821</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>166456</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB25D03C-BD8B-5005-EBAE-6F3EFE4B399B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11291,10 +14048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF7DDC-DF0B-494E-A3F5-5B78F9E0E08D}">
-  <dimension ref="A1:BN114"/>
+  <dimension ref="A1:BN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="146" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="AJ61" sqref="AJ61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="52" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Y103" sqref="Y103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18522,7 +21279,10 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="M57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.35">
@@ -18533,8 +21293,11 @@
         <f>F54</f>
         <v>3.465635893</v>
       </c>
+      <c r="M58">
+        <v>0.94</v>
+      </c>
       <c r="AH58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.35">
@@ -18546,10 +21309,10 @@
         <v>7.479963111</v>
       </c>
       <c r="AH59" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI59" t="s">
         <v>26</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.35">
@@ -18560,11 +21323,8 @@
         <f>L54</f>
         <v>9.8395106549999998</v>
       </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
+      <c r="M60">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.35">
@@ -18576,12 +21336,11 @@
         <v>11.470611829999999</v>
       </c>
       <c r="AG61">
-        <f>AF2</f>
+        <f t="shared" ref="AG61:AG92" si="0">AF2</f>
         <v>73307180</v>
       </c>
       <c r="AH61">
-        <f>AH60+(AG62-AG61)/1000000</f>
-        <v>2.0153999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AI61">
         <f>AG2</f>
@@ -18596,16 +21355,19 @@
         <f>R54</f>
         <v>12.19492614</v>
       </c>
+      <c r="M62">
+        <v>3.9</v>
+      </c>
       <c r="AG62">
-        <f>AF3</f>
+        <f t="shared" si="0"/>
         <v>73327334</v>
       </c>
       <c r="AH62">
-        <f t="shared" ref="AH62:AH111" si="0">AH61+(AG63-AG62)/1000000</f>
-        <v>4.0312000000000001E-2</v>
+        <f t="shared" ref="AH62:AH110" si="1">AH61+(AG63-AG62)/1000000</f>
+        <v>2.0157999999999999E-2</v>
       </c>
       <c r="AI62">
-        <f t="shared" ref="AH62:AI62" si="1">AG3</f>
+        <f t="shared" ref="AI62" si="2">AG3</f>
         <v>3.9682979999999999</v>
       </c>
     </row>
@@ -18618,12 +21380,12 @@
         <v>13.444714380000001</v>
       </c>
       <c r="AG63">
-        <f>AF4</f>
+        <f t="shared" si="0"/>
         <v>73347492</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="0"/>
-        <v>6.0472999999999999E-2</v>
+        <f>AH62+(AG64-AG63)/1000000</f>
+        <v>4.0318999999999994E-2</v>
       </c>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.35">
@@ -18634,20 +21396,23 @@
         <f>X54</f>
         <v>13.650883309999999</v>
       </c>
+      <c r="M64">
+        <v>5.2</v>
+      </c>
       <c r="AG64">
-        <f>AF5</f>
+        <f t="shared" si="0"/>
         <v>73367653</v>
       </c>
       <c r="AH64">
-        <f t="shared" si="0"/>
-        <v>8.0631999999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.047799999999999E-2</v>
       </c>
       <c r="AI64">
-        <f t="shared" ref="AH64:AI64" si="2">AG5</f>
+        <f t="shared" ref="AI64" si="3">AG5</f>
         <v>8.6243870000000005</v>
       </c>
     </row>
-    <row r="65" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K65">
         <v>2.25</v>
       </c>
@@ -18656,19 +21421,19 @@
         <v>14.211004000000001</v>
       </c>
       <c r="AG65">
-        <f>AF6</f>
+        <f t="shared" si="0"/>
         <v>73387812</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="0"/>
-        <v>0.100783</v>
+        <f t="shared" si="1"/>
+        <v>8.0628999999999992E-2</v>
       </c>
       <c r="AI65">
-        <f t="shared" ref="AH65:AI65" si="3">AG6</f>
+        <f t="shared" ref="AI65" si="4">AG6</f>
         <v>10.15879</v>
       </c>
     </row>
-    <row r="66" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K66">
         <v>2.5</v>
       </c>
@@ -18676,20 +21441,23 @@
         <f>AD54</f>
         <v>15.063184079999999</v>
       </c>
+      <c r="M66">
+        <v>6.4</v>
+      </c>
       <c r="AG66">
-        <f>AF7</f>
+        <f t="shared" si="0"/>
         <v>73407963</v>
       </c>
       <c r="AH66">
-        <f t="shared" si="0"/>
-        <v>0.120947</v>
+        <f t="shared" si="1"/>
+        <v>0.10079299999999999</v>
       </c>
       <c r="AI66">
-        <f t="shared" ref="AH66:AI66" si="4">AG7</f>
+        <f t="shared" ref="AI66" si="5">AG7</f>
         <v>11.322844999999999</v>
       </c>
     </row>
-    <row r="67" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K67">
         <v>2.75</v>
       </c>
@@ -18698,19 +21466,19 @@
         <v>14.714564660000001</v>
       </c>
       <c r="AG67">
-        <f>AF8</f>
+        <f t="shared" si="0"/>
         <v>73428127</v>
       </c>
       <c r="AH67">
-        <f t="shared" si="0"/>
-        <v>0.14113400000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.12097999999999999</v>
       </c>
       <c r="AI67">
-        <f t="shared" ref="AH67:AI67" si="5">AG8</f>
+        <f t="shared" ref="AI67" si="6">AG8</f>
         <v>11.904836</v>
       </c>
     </row>
-    <row r="68" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K68">
         <v>3</v>
       </c>
@@ -18718,20 +21486,23 @@
         <f>AJ54</f>
         <v>15.024737930000001</v>
       </c>
+      <c r="M68">
+        <v>8.1</v>
+      </c>
       <c r="AG68">
-        <f>AF9</f>
+        <f t="shared" si="0"/>
         <v>73448314</v>
       </c>
       <c r="AH68">
         <f>AH67+(AG69-AG68)/1000000</f>
-        <v>0.16129100000000002</v>
+        <v>0.14113699999999998</v>
       </c>
       <c r="AI68">
-        <f t="shared" ref="AH68:AI68" si="6">AG9</f>
+        <f t="shared" ref="AI68" si="7">AG9</f>
         <v>12.328099999999999</v>
       </c>
     </row>
-    <row r="69" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K69">
         <v>3.25</v>
       </c>
@@ -18740,19 +21511,19 @@
         <v>14.98094603</v>
       </c>
       <c r="AG69">
-        <f>AF10</f>
+        <f t="shared" si="0"/>
         <v>73468471</v>
       </c>
       <c r="AH69">
-        <f t="shared" si="0"/>
-        <v>0.18148200000000003</v>
+        <f t="shared" si="1"/>
+        <v>0.16132799999999997</v>
       </c>
       <c r="AI69">
-        <f t="shared" ref="AH69:AI69" si="7">AG10</f>
+        <f t="shared" ref="AI69" si="8">AG10</f>
         <v>14.550328</v>
       </c>
     </row>
-    <row r="70" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K70">
         <v>3.5</v>
       </c>
@@ -18760,34 +21531,37 @@
         <f>AP54</f>
         <v>15.053917139999999</v>
       </c>
+      <c r="M70">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="AG70">
-        <f>AF11</f>
+        <f t="shared" si="0"/>
         <v>73488662</v>
       </c>
       <c r="AH70">
+        <f t="shared" si="1"/>
+        <v>0.18148399999999998</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" ref="AI70" si="9">AG11</f>
+        <v>11.428642</v>
+      </c>
+    </row>
+    <row r="71" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="AG71">
         <f t="shared" si="0"/>
-        <v>0.20163800000000004</v>
-      </c>
-      <c r="AI70">
-        <f t="shared" ref="AH70:AI70" si="8">AG11</f>
-        <v>11.428642</v>
+        <v>73508818</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="1"/>
+        <v>0.20163999999999999</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" ref="AI71" si="10">AG12</f>
+        <v>14.179969</v>
       </c>
     </row>
-    <row r="71" spans="11:35" x14ac:dyDescent="0.35">
-      <c r="AG71">
-        <f>AF12</f>
-        <v>73508818</v>
-      </c>
-      <c r="AH71">
-        <f t="shared" si="0"/>
-        <v>0.22179400000000005</v>
-      </c>
-      <c r="AI71">
-        <f t="shared" ref="AH71:AI71" si="9">AG12</f>
-        <v>14.179969</v>
-      </c>
-    </row>
-    <row r="72" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K72">
         <v>4</v>
       </c>
@@ -18795,20 +21569,23 @@
         <f>AV54</f>
         <v>15.21629824</v>
       </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
       <c r="AG72">
-        <f>AF13</f>
+        <f t="shared" si="0"/>
         <v>73528974</v>
       </c>
       <c r="AH72">
-        <f t="shared" si="0"/>
-        <v>0.24195900000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.22180499999999997</v>
       </c>
       <c r="AI72">
-        <f t="shared" ref="AH72:AI81" si="10">AG13</f>
+        <f t="shared" ref="AI72:AI81" si="11">AG13</f>
         <v>11.904836</v>
       </c>
     </row>
-    <row r="73" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K73">
         <v>4.25</v>
       </c>
@@ -18817,19 +21594,19 @@
         <v>15.66147831</v>
       </c>
       <c r="AG73">
-        <f>AF14</f>
+        <f t="shared" si="0"/>
         <v>73549139</v>
       </c>
       <c r="AH73">
-        <f t="shared" si="0"/>
-        <v>0.26212500000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.24197099999999996</v>
       </c>
       <c r="AI73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.619157999999999</v>
       </c>
     </row>
-    <row r="74" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K74">
         <v>4.5</v>
       </c>
@@ -18837,20 +21614,23 @@
         <f>BB54</f>
         <v>15.79831779</v>
       </c>
+      <c r="M74">
+        <v>11.9</v>
+      </c>
       <c r="AG74">
-        <f>AF15</f>
+        <f t="shared" si="0"/>
         <v>73569305</v>
       </c>
       <c r="AH74">
-        <f t="shared" si="0"/>
-        <v>0.28227900000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.26212499999999994</v>
       </c>
       <c r="AI74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.444494000000001</v>
       </c>
     </row>
-    <row r="75" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K75">
         <v>4.75</v>
       </c>
@@ -18859,19 +21639,22 @@
         <v>15.81838434</v>
       </c>
       <c r="AG75">
-        <f>AF16</f>
+        <f t="shared" si="0"/>
         <v>73589459</v>
       </c>
       <c r="AH75">
-        <f t="shared" si="0"/>
-        <v>0.30244100000000007</v>
+        <f t="shared" si="1"/>
+        <v>0.28228699999999995</v>
       </c>
       <c r="AI75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.550304000000001</v>
       </c>
     </row>
-    <row r="76" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
       <c r="K76">
         <v>5</v>
       </c>
@@ -18879,20 +21662,23 @@
         <f>BH54</f>
         <v>15.86034903</v>
       </c>
+      <c r="M76">
+        <v>12.4</v>
+      </c>
       <c r="AG76">
-        <f>AF17</f>
+        <f t="shared" si="0"/>
         <v>73609621</v>
       </c>
       <c r="AH76">
-        <f t="shared" si="0"/>
-        <v>0.32260800000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.30245399999999995</v>
       </c>
       <c r="AI76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.391613</v>
       </c>
     </row>
-    <row r="77" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.35">
       <c r="K77">
         <v>5.25</v>
       </c>
@@ -18900,20 +21686,34 @@
         <f>BK54</f>
         <v>16.07381062</v>
       </c>
+      <c r="P77" t="s">
+        <v>34</v>
+      </c>
       <c r="AG77">
-        <f>AF18</f>
+        <f t="shared" si="0"/>
         <v>73629788</v>
       </c>
       <c r="AH77">
-        <f t="shared" si="0"/>
-        <v>0.34276300000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.32260899999999992</v>
       </c>
       <c r="AI77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.391613</v>
       </c>
     </row>
-    <row r="78" spans="11:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <f>N2</f>
+        <v>37136308</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>O2</f>
+        <v>1.005298</v>
+      </c>
       <c r="K78">
         <v>5.5</v>
       </c>
@@ -18921,493 +21721,1743 @@
         <f>BN54</f>
         <v>16.18146162</v>
       </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
       <c r="AG78">
-        <f>AF19</f>
+        <f t="shared" si="0"/>
         <v>73649943</v>
       </c>
       <c r="AH78">
+        <f t="shared" si="1"/>
+        <v>0.34279999999999994</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" si="11"/>
+        <v>14.497453999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <f t="shared" ref="C79:C128" si="12">N3</f>
+        <v>37156459</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D127" si="13">D78+(C80-C79)/1000000</f>
+        <v>2.0153999999999998E-2</v>
+      </c>
+      <c r="P79">
+        <f>Q2</f>
+        <v>43164641</v>
+      </c>
+      <c r="Q79">
+        <f>Q78+(P80-P79)/1000000</f>
+        <v>2.0164999999999999E-2</v>
+      </c>
+      <c r="R79">
+        <f>R2</f>
+        <v>2.910072</v>
+      </c>
+      <c r="AG79">
         <f t="shared" si="0"/>
-        <v>0.36295400000000005</v>
-      </c>
-      <c r="AI78">
-        <f t="shared" si="10"/>
-        <v>14.497453999999999</v>
+        <v>73670134</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="1"/>
+        <v>0.36297299999999993</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" si="11"/>
+        <v>14.762003</v>
       </c>
     </row>
-    <row r="79" spans="11:35" x14ac:dyDescent="0.35">
-      <c r="AG79">
-        <f>AF20</f>
-        <v>73670134</v>
-      </c>
-      <c r="AH79">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <f t="shared" si="12"/>
+        <v>37176613</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="13"/>
+        <v>4.0316999999999999E-2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E79:E128" si="14">O4</f>
+        <v>3.5449950000000001</v>
+      </c>
+      <c r="P80">
+        <f t="shared" ref="P80:P128" si="15">Q3</f>
+        <v>43184806</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ref="Q80:Q128" si="16">Q79+(P81-P80)/1000000</f>
+        <v>4.0322999999999998E-2</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ref="R80:R128" si="17">R3</f>
+        <v>2.4867849999999998</v>
+      </c>
+      <c r="AG80">
         <f t="shared" si="0"/>
-        <v>0.38312700000000005</v>
-      </c>
-      <c r="AI79">
-        <f t="shared" si="10"/>
-        <v>14.762003</v>
+        <v>73690307</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="1"/>
+        <v>0.38312999999999992</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="11"/>
+        <v>14.973644999999999</v>
       </c>
     </row>
-    <row r="80" spans="11:35" x14ac:dyDescent="0.35">
-      <c r="AG80">
-        <f>AF21</f>
-        <v>73690307</v>
-      </c>
-      <c r="AH80">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <f t="shared" si="12"/>
+        <v>37196776</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="13"/>
+        <v>6.0470999999999997E-2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="14"/>
+        <v>4.4444679999999996</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="15"/>
+        <v>43204964</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="16"/>
+        <v>6.0476999999999996E-2</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="17"/>
+        <v>3.9682789999999999</v>
+      </c>
+      <c r="AG81">
         <f t="shared" si="0"/>
-        <v>0.40328400000000003</v>
-      </c>
-      <c r="AI80">
-        <f t="shared" si="10"/>
-        <v>14.973644999999999</v>
+        <v>73710464</v>
+      </c>
+      <c r="AH81">
+        <f t="shared" si="1"/>
+        <v>0.40329199999999993</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="11"/>
+        <v>17.301701999999999</v>
       </c>
     </row>
-    <row r="81" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG81">
-        <f>AF22</f>
-        <v>73710464</v>
-      </c>
-      <c r="AH81">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <f t="shared" si="12"/>
+        <v>37216930</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="13"/>
+        <v>8.0629999999999993E-2</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="14"/>
+        <v>5.0793980000000003</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="15"/>
+        <v>43225118</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="16"/>
+        <v>8.0638999999999988E-2</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="17"/>
+        <v>5.0794069999999998</v>
+      </c>
+      <c r="AG82">
         <f t="shared" si="0"/>
-        <v>0.42344600000000004</v>
-      </c>
-      <c r="AI81">
-        <f t="shared" si="10"/>
-        <v>17.301701999999999</v>
+        <v>73730626</v>
+      </c>
+      <c r="AH82">
+        <f t="shared" si="1"/>
+        <v>0.42345099999999991</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" ref="AI82" si="18">AG23</f>
+        <v>14.867822</v>
       </c>
     </row>
-    <row r="82" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG82">
-        <f>AF23</f>
-        <v>73730626</v>
-      </c>
-      <c r="AH82">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <f t="shared" si="12"/>
+        <v>37237089</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="13"/>
+        <v>0.10079099999999999</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="15"/>
+        <v>43245280</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="16"/>
+        <v>0.10079899999999999</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="17"/>
+        <v>8.5714760000000005</v>
+      </c>
+      <c r="AG83">
         <f t="shared" si="0"/>
-        <v>0.44360500000000003</v>
-      </c>
-      <c r="AI82">
-        <f t="shared" ref="AH82:AI82" si="11">AG23</f>
-        <v>14.867822</v>
+        <v>73750785</v>
+      </c>
+      <c r="AH83">
+        <f t="shared" si="1"/>
+        <v>0.44360499999999992</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" ref="AI83" si="19">AG24</f>
+        <v>14.60327</v>
       </c>
     </row>
-    <row r="83" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG83">
-        <f>AF24</f>
-        <v>73750785</v>
-      </c>
-      <c r="AH83">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <f t="shared" si="12"/>
+        <v>37257250</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="13"/>
+        <v>0.120945</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="14"/>
+        <v>6.5608909999999998</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="15"/>
+        <v>43265440</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="16"/>
+        <v>0.12095599999999998</v>
+      </c>
+      <c r="AG84">
         <f t="shared" si="0"/>
-        <v>0.46375900000000003</v>
-      </c>
-      <c r="AI83">
-        <f t="shared" ref="AH83:AI83" si="12">AG24</f>
-        <v>14.60327</v>
+        <v>73770939</v>
+      </c>
+      <c r="AH84">
+        <f t="shared" si="1"/>
+        <v>0.46377799999999991</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" ref="AI84" si="20">AG25</f>
+        <v>14.550352</v>
       </c>
     </row>
-    <row r="84" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG84">
-        <f>AF25</f>
-        <v>73770939</v>
-      </c>
-      <c r="AH84">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <f t="shared" si="12"/>
+        <v>37277404</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="13"/>
+        <v>0.141099</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="14"/>
+        <v>7.6190959999999999</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="15"/>
+        <v>43285597</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="16"/>
+        <v>0.14114599999999999</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="17"/>
+        <v>7.8307450000000003</v>
+      </c>
+      <c r="AG85">
         <f t="shared" si="0"/>
-        <v>0.48393200000000003</v>
-      </c>
-      <c r="AI84">
-        <f t="shared" ref="AH84:AI84" si="13">AG25</f>
-        <v>14.550352</v>
+        <v>73791112</v>
+      </c>
+      <c r="AH85">
+        <f t="shared" si="1"/>
+        <v>0.48394199999999993</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" ref="AI85" si="21">AG26</f>
+        <v>15.873135</v>
       </c>
     </row>
-    <row r="85" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG85">
-        <f>AF26</f>
-        <v>73791112</v>
-      </c>
-      <c r="AH85">
+    <row r="86" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <f t="shared" si="12"/>
+        <v>37297558</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="13"/>
+        <v>0.16125500000000001</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="14"/>
+        <v>7.7778270000000003</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="15"/>
+        <v>43305787</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="16"/>
+        <v>0.161306</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="17"/>
+        <v>8.5715000000000003</v>
+      </c>
+      <c r="AG86">
         <f t="shared" si="0"/>
-        <v>0.50409599999999999</v>
-      </c>
-      <c r="AI85">
-        <f t="shared" ref="AH85:AI85" si="14">AG26</f>
-        <v>15.873135</v>
+        <v>73811276</v>
+      </c>
+      <c r="AH86">
+        <f t="shared" si="1"/>
+        <v>0.50409499999999996</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" ref="AI86" si="22">AG27</f>
+        <v>14.285814999999999</v>
       </c>
     </row>
-    <row r="86" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG86">
-        <f>AF27</f>
-        <v>73811276</v>
-      </c>
-      <c r="AH86">
+    <row r="87" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <f t="shared" si="12"/>
+        <v>37317714</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="13"/>
+        <v>0.18141000000000002</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="15"/>
+        <v>43325947</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="16"/>
+        <v>0.18146300000000001</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="17"/>
+        <v>9.9471570000000007</v>
+      </c>
+      <c r="AG87">
         <f t="shared" si="0"/>
-        <v>0.52424899999999997</v>
-      </c>
-      <c r="AI86">
-        <f t="shared" ref="AH86:AI86" si="15">AG27</f>
-        <v>14.285814999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG87">
-        <f>AF28</f>
         <v>73831429</v>
       </c>
       <c r="AH87">
         <f>AH86+(AG88-AG87)/1000000</f>
-        <v>0.54440899999999992</v>
+        <v>0.52425499999999992</v>
       </c>
       <c r="AI87">
-        <f t="shared" ref="AH87:AI87" si="16">AG28</f>
+        <f t="shared" ref="AI87" si="23">AG28</f>
         <v>14.86783</v>
       </c>
     </row>
-    <row r="88" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <f t="shared" si="12"/>
+        <v>37337869</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="13"/>
+        <v>0.201571</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="15"/>
+        <v>43346104</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="16"/>
+        <v>0.20164800000000002</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="17"/>
+        <v>9.5238689999999995</v>
+      </c>
       <c r="AG88">
-        <f>AF29</f>
+        <f t="shared" si="0"/>
         <v>73851589</v>
       </c>
       <c r="AH88">
+        <f t="shared" si="1"/>
+        <v>0.5444119999999999</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" ref="AI88" si="24">AG29</f>
+        <v>14.920735000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <f t="shared" si="12"/>
+        <v>37358030</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="13"/>
+        <v>0.22172600000000001</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="14"/>
+        <v>8.888954</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="15"/>
+        <v>43366289</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="16"/>
+        <v>0.22180500000000003</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="17"/>
+        <v>9.6826080000000001</v>
+      </c>
+      <c r="AG89">
         <f t="shared" si="0"/>
-        <v>0.5645659999999999</v>
-      </c>
-      <c r="AI88">
-        <f t="shared" ref="AH88:AI88" si="17">AG29</f>
-        <v>14.920735000000001</v>
+        <v>73871746</v>
+      </c>
+      <c r="AH89">
+        <f t="shared" si="1"/>
+        <v>0.56457099999999993</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" ref="AI89" si="25">AG30</f>
+        <v>16.084765999999998</v>
       </c>
     </row>
-    <row r="89" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG89">
-        <f>AF30</f>
-        <v>73871746</v>
-      </c>
-      <c r="AH89">
+    <row r="90" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <f t="shared" si="12"/>
+        <v>37378185</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="13"/>
+        <v>0.24190400000000001</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="14"/>
+        <v>9.4180530000000005</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="15"/>
+        <v>43386446</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="16"/>
+        <v>0.24198900000000004</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="17"/>
+        <v>10.2646</v>
+      </c>
+      <c r="AG90">
         <f t="shared" si="0"/>
+        <v>73891905</v>
+      </c>
+      <c r="AH90">
+        <f t="shared" si="1"/>
         <v>0.58472499999999994</v>
       </c>
-      <c r="AI89">
-        <f t="shared" ref="AH89:AI89" si="18">AG30</f>
-        <v>16.084765999999998</v>
+      <c r="AI90">
+        <f t="shared" ref="AI90" si="26">AG31</f>
+        <v>15.026593</v>
       </c>
     </row>
-    <row r="90" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG90">
-        <f>AF31</f>
-        <v>73891905</v>
-      </c>
-      <c r="AH90">
+    <row r="91" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>37398363</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="13"/>
+        <v>0.26206099999999999</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="15"/>
+        <v>43406630</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="16"/>
+        <v>0.26216200000000006</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="17"/>
+        <v>10.899532000000001</v>
+      </c>
+      <c r="AG91">
         <f t="shared" si="0"/>
-        <v>0.60487899999999994</v>
-      </c>
-      <c r="AI90">
-        <f t="shared" ref="AH90:AI90" si="19">AG31</f>
-        <v>15.026593</v>
+        <v>73912059</v>
+      </c>
+      <c r="AH91">
+        <f t="shared" si="1"/>
+        <v>0.60488299999999995</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" ref="AI91" si="27">AG32</f>
+        <v>14.709091000000001</v>
       </c>
     </row>
-    <row r="91" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG91">
-        <f>AF32</f>
-        <v>73912059</v>
-      </c>
-      <c r="AH91">
+    <row r="92" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <f t="shared" si="12"/>
+        <v>37418520</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="13"/>
+        <v>0.28221499999999999</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="14"/>
+        <v>9.7355250000000009</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="15"/>
+        <v>43426803</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="16"/>
+        <v>0.28231900000000004</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="17"/>
+        <v>11.111188</v>
+      </c>
+      <c r="AG92">
         <f t="shared" si="0"/>
-        <v>0.62503699999999995</v>
-      </c>
-      <c r="AI91">
-        <f t="shared" ref="AH91:AI91" si="20">AG32</f>
+        <v>73932217</v>
+      </c>
+      <c r="AH92">
+        <f t="shared" si="1"/>
+        <v>0.6250659999999999</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" ref="AI92" si="28">AG33</f>
         <v>14.709091000000001</v>
       </c>
     </row>
-    <row r="92" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG92">
-        <f>AF33</f>
-        <v>73932217</v>
-      </c>
-      <c r="AH92">
-        <f t="shared" si="0"/>
-        <v>0.6452199999999999</v>
-      </c>
-      <c r="AI92">
-        <f t="shared" ref="AH92:AI92" si="21">AG33</f>
-        <v>14.709091000000001</v>
+    <row r="93" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <f t="shared" si="12"/>
+        <v>37438674</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="13"/>
+        <v>0.302373</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="14"/>
+        <v>9.9471450000000008</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="15"/>
+        <v>43446960</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="16"/>
+        <v>0.30248100000000006</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="17"/>
+        <v>11.058282999999999</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" ref="AG93:AG124" si="29">AF34</f>
+        <v>73952400</v>
+      </c>
+      <c r="AH93">
+        <f t="shared" si="1"/>
+        <v>0.64522499999999994</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" ref="AI93" si="30">AG34</f>
+        <v>14.179969</v>
       </c>
     </row>
-    <row r="93" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG93">
-        <f>AF34</f>
-        <v>73952400</v>
-      </c>
-      <c r="AH93">
-        <f t="shared" si="0"/>
-        <v>0.66537899999999994</v>
-      </c>
-      <c r="AI93">
-        <f t="shared" ref="AH93:AI93" si="22">AG34</f>
-        <v>14.179969</v>
+    <row r="94" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>37458832</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="13"/>
+        <v>0.32256600000000002</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="14"/>
+        <v>10.211695000000001</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="15"/>
+        <v>43467122</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="16"/>
+        <v>0.32264100000000007</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="17"/>
+        <v>11.322832</v>
+      </c>
+      <c r="U94" t="s">
+        <v>27</v>
+      </c>
+      <c r="V94">
+        <f>AVERAGE(R102:R127)</f>
+        <v>12.34439519230769</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="29"/>
+        <v>73972559</v>
+      </c>
+      <c r="AH94">
+        <f t="shared" si="1"/>
+        <v>0.66538099999999989</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" ref="AI94" si="31">AG35</f>
+        <v>14.603281000000001</v>
       </c>
     </row>
-    <row r="94" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG94">
-        <f>AF35</f>
-        <v>73972559</v>
-      </c>
-      <c r="AH94">
-        <f t="shared" si="0"/>
-        <v>0.68553499999999989</v>
-      </c>
-      <c r="AI94">
-        <f t="shared" ref="AH94:AI94" si="23">AG35</f>
+    <row r="95" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <f t="shared" si="12"/>
+        <v>37479025</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="13"/>
+        <v>0.342721</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="15"/>
+        <v>43487282</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="16"/>
+        <v>0.34279400000000004</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="17"/>
+        <v>11.693192</v>
+      </c>
+      <c r="U95" t="s">
+        <v>28</v>
+      </c>
+      <c r="V95">
+        <f>V94*0.63</f>
+        <v>7.7769689711538446</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="29"/>
+        <v>73992715</v>
+      </c>
+      <c r="AH95">
+        <f t="shared" si="1"/>
+        <v>0.68555399999999989</v>
+      </c>
+      <c r="AI95">
+        <f t="shared" ref="AI95" si="32">AG36</f>
+        <v>14.338684000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <f t="shared" si="12"/>
+        <v>37499180</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="13"/>
+        <v>0.36290499999999998</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="14"/>
+        <v>10.687851999999999</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="15"/>
+        <v>43507435</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="16"/>
+        <v>0.36295000000000005</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="17"/>
+        <v>11.746143999999999</v>
+      </c>
+      <c r="U96" t="s">
+        <v>35</v>
+      </c>
+      <c r="V96">
+        <v>0.12</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="29"/>
+        <v>74012888</v>
+      </c>
+      <c r="AH96">
+        <f t="shared" si="1"/>
+        <v>0.70570899999999992</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" ref="AI96" si="33">AG37</f>
         <v>14.603281000000001</v>
       </c>
     </row>
-    <row r="95" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG95">
-        <f>AF36</f>
-        <v>73992715</v>
-      </c>
-      <c r="AH95">
-        <f t="shared" si="0"/>
-        <v>0.70570799999999989</v>
-      </c>
-      <c r="AI95">
-        <f t="shared" ref="AH95:AI95" si="24">AG36</f>
-        <v>14.338684000000001</v>
+    <row r="97" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <f t="shared" si="12"/>
+        <v>37519364</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="13"/>
+        <v>0.38305799999999995</v>
+      </c>
+      <c r="H97" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97">
+        <f>AVERAGE(E101:E128)</f>
+        <v>11.57758111111111</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="15"/>
+        <v>43527591</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="16"/>
+        <v>0.38311400000000007</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="17"/>
+        <v>11.640286</v>
+      </c>
+      <c r="U97" t="s">
+        <v>33</v>
+      </c>
+      <c r="V97">
+        <f>V94/1.5</f>
+        <v>8.2295967948717941</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="29"/>
+        <v>74033043</v>
+      </c>
+      <c r="AH97">
+        <f t="shared" si="1"/>
+        <v>0.72587099999999993</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" ref="AI97" si="34">AG38</f>
+        <v>14.97364</v>
       </c>
     </row>
-    <row r="96" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG96">
-        <f>AF37</f>
-        <v>74012888</v>
-      </c>
-      <c r="AH96">
-        <f t="shared" si="0"/>
-        <v>0.72586299999999992</v>
-      </c>
-      <c r="AI96">
-        <f t="shared" ref="AH96:AI96" si="25">AG37</f>
-        <v>14.603281000000001</v>
+    <row r="98" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <f t="shared" si="12"/>
+        <v>37539517</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="13"/>
+        <v>0.40321699999999994</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="14"/>
+        <v>10.740829</v>
+      </c>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98">
+        <f>I97*0.63</f>
+        <v>7.2938760999999994</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="15"/>
+        <v>43547755</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="16"/>
+        <v>0.40327100000000005</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="17"/>
+        <v>11.957765</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="29"/>
+        <v>74053205</v>
+      </c>
+      <c r="AH98">
+        <f t="shared" si="1"/>
+        <v>0.74603399999999997</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" ref="AI98" si="35">AG39</f>
+        <v>14.97364</v>
       </c>
     </row>
-    <row r="97" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG97">
-        <f>AF38</f>
-        <v>74033043</v>
-      </c>
-      <c r="AH97">
-        <f t="shared" si="0"/>
-        <v>0.74602499999999994</v>
-      </c>
-      <c r="AI97">
-        <f t="shared" ref="AH97:AI97" si="26">AG38</f>
-        <v>14.97364</v>
+    <row r="99" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <f t="shared" si="12"/>
+        <v>37559676</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="13"/>
+        <v>0.42337199999999992</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="14"/>
+        <v>12.010645999999999</v>
+      </c>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99">
+        <v>0.16</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="15"/>
+        <v>43567912</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="16"/>
+        <v>0.42345200000000005</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="17"/>
+        <v>11.957741</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="29"/>
+        <v>74073368</v>
+      </c>
+      <c r="AH99">
+        <f t="shared" si="1"/>
+        <v>0.76619199999999998</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" ref="AI99" si="36">AG40</f>
+        <v>14.867825</v>
       </c>
     </row>
-    <row r="98" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG98">
-        <f>AF39</f>
-        <v>74053205</v>
-      </c>
-      <c r="AH98">
-        <f t="shared" si="0"/>
-        <v>0.76618799999999998</v>
-      </c>
-      <c r="AI98">
-        <f t="shared" ref="AH98:AI98" si="27">AG39</f>
-        <v>14.97364</v>
+    <row r="100" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <f t="shared" si="12"/>
+        <v>37579831</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="13"/>
+        <v>0.44354699999999991</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="14"/>
+        <v>11.005354000000001</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100">
+        <f>I97/1.25</f>
+        <v>9.2620648888888883</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="15"/>
+        <v>43588093</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="16"/>
+        <v>0.44361300000000004</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="17"/>
+        <v>10.105896</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="29"/>
+        <v>74093526</v>
+      </c>
+      <c r="AH100">
+        <f t="shared" si="1"/>
+        <v>0.78634799999999994</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" ref="AI100" si="37">AG41</f>
+        <v>14.60327</v>
       </c>
     </row>
-    <row r="99" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG99">
-        <f>AF40</f>
-        <v>74073368</v>
-      </c>
-      <c r="AH99">
-        <f t="shared" si="0"/>
-        <v>0.78634599999999999</v>
-      </c>
-      <c r="AI99">
-        <f t="shared" ref="AH99:AI99" si="28">AG40</f>
-        <v>14.867825</v>
+    <row r="101" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <f t="shared" si="12"/>
+        <v>37600006</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="13"/>
+        <v>0.46370099999999992</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="14"/>
+        <v>11.217022</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="15"/>
+        <v>43608254</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="16"/>
+        <v>0.46377700000000005</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="17"/>
+        <v>11.851931</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="29"/>
+        <v>74113682</v>
+      </c>
+      <c r="AH101">
+        <f t="shared" si="1"/>
+        <v>0.80654399999999993</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" ref="AI101" si="38">AG42</f>
+        <v>14.656186</v>
       </c>
     </row>
-    <row r="100" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG100">
-        <f>AF41</f>
-        <v>74093526</v>
-      </c>
-      <c r="AH100">
-        <f t="shared" si="0"/>
-        <v>0.80650199999999994</v>
-      </c>
-      <c r="AI100">
-        <f t="shared" ref="AH100:AI100" si="29">AG41</f>
-        <v>14.60327</v>
+    <row r="102" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <f t="shared" si="12"/>
+        <v>37620160</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="13"/>
+        <v>0.48385899999999993</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="14"/>
+        <v>11.375737000000001</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="15"/>
+        <v>43628418</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="16"/>
+        <v>0.48393200000000003</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="17"/>
+        <v>12.169409</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="29"/>
+        <v>74133878</v>
+      </c>
+      <c r="AH102">
+        <f t="shared" si="1"/>
+        <v>0.82670399999999988</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" ref="AI102" si="39">AG43</f>
+        <v>14.920733999999999</v>
       </c>
     </row>
-    <row r="101" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG101">
-        <f>AF42</f>
-        <v>74113682</v>
-      </c>
-      <c r="AH101">
-        <f t="shared" si="0"/>
-        <v>0.82669799999999993</v>
-      </c>
-      <c r="AI101">
-        <f t="shared" ref="AH101:AI101" si="30">AG42</f>
-        <v>14.656186</v>
+    <row r="103" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <f t="shared" si="12"/>
+        <v>37640318</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="13"/>
+        <v>0.50401799999999997</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="14"/>
+        <v>12.222314000000001</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="15"/>
+        <v>43648573</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="16"/>
+        <v>0.50412299999999999</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="17"/>
+        <v>12.433909999999999</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="29"/>
+        <v>74154038</v>
+      </c>
+      <c r="AH103">
+        <f t="shared" si="1"/>
+        <v>0.84685899999999992</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" ref="AI103" si="40">AG44</f>
+        <v>15.185290999999999</v>
       </c>
     </row>
-    <row r="102" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG102">
-        <f>AF43</f>
-        <v>74133878</v>
-      </c>
-      <c r="AH102">
-        <f t="shared" si="0"/>
-        <v>0.84685799999999989</v>
-      </c>
-      <c r="AI102">
-        <f t="shared" ref="AH102:AI102" si="31">AG43</f>
-        <v>14.920733999999999</v>
+    <row r="104" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <f t="shared" si="12"/>
+        <v>37660477</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="13"/>
+        <v>0.524173</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="14"/>
+        <v>11.269926999999999</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="15"/>
+        <v>43668764</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="16"/>
+        <v>0.524281</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="17"/>
+        <v>12.380981</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="29"/>
+        <v>74174193</v>
+      </c>
+      <c r="AH104">
+        <f t="shared" si="1"/>
+        <v>0.86704399999999993</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" ref="AI104" si="41">AG45</f>
+        <v>14.762003</v>
       </c>
     </row>
-    <row r="103" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG103">
-        <f>AF44</f>
-        <v>74154038</v>
-      </c>
-      <c r="AH103">
-        <f t="shared" si="0"/>
-        <v>0.86701299999999992</v>
-      </c>
-      <c r="AI103">
-        <f t="shared" ref="AH103:AI103" si="32">AG44</f>
-        <v>15.185290999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="33:35" x14ac:dyDescent="0.35">
-      <c r="AG104">
-        <f>AF45</f>
-        <v>74174193</v>
-      </c>
-      <c r="AH104">
-        <f t="shared" si="0"/>
-        <v>0.88719799999999993</v>
-      </c>
-      <c r="AI104">
-        <f t="shared" ref="AH104:AI104" si="33">AG45</f>
-        <v>14.762003</v>
-      </c>
-    </row>
-    <row r="105" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <f t="shared" si="12"/>
+        <v>37680632</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="13"/>
+        <v>0.54433100000000001</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="14"/>
+        <v>11.269902999999999</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="15"/>
+        <v>43688922</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="16"/>
+        <v>0.54443900000000001</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="17"/>
+        <v>12.380981</v>
+      </c>
       <c r="AG105">
-        <f>AF46</f>
+        <f t="shared" si="29"/>
         <v>74194378</v>
       </c>
       <c r="AH105">
-        <f t="shared" si="0"/>
-        <v>0.90736099999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.88720699999999997</v>
       </c>
       <c r="AI105">
         <f>AG46</f>
         <v>14.814908000000001</v>
       </c>
     </row>
-    <row r="106" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <f t="shared" si="12"/>
+        <v>37700790</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="13"/>
+        <v>0.56450299999999998</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="14"/>
+        <v>11.058235</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="15"/>
+        <v>43709080</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="16"/>
+        <v>0.56462599999999996</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="17"/>
+        <v>12.910133999999999</v>
+      </c>
       <c r="AG106">
-        <f>AF47</f>
+        <f t="shared" si="29"/>
         <v>74214541</v>
       </c>
       <c r="AH106">
-        <f t="shared" si="0"/>
-        <v>0.92752099999999993</v>
+        <f t="shared" si="1"/>
+        <v>0.90736699999999992</v>
       </c>
       <c r="AI106">
-        <f t="shared" ref="AI106:AI113" si="34">AG47</f>
+        <f t="shared" ref="AI106:AI111" si="42">AG47</f>
         <v>11.904847999999999</v>
       </c>
     </row>
-    <row r="107" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <f t="shared" si="12"/>
+        <v>37720962</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="13"/>
+        <v>0.584677</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="14"/>
+        <v>11.904859999999999</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="15"/>
+        <v>43729267</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="16"/>
+        <v>0.58478699999999995</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="17"/>
+        <v>10.211715999999999</v>
+      </c>
       <c r="AG107">
-        <f>AF48</f>
+        <f t="shared" si="29"/>
         <v>74234701</v>
       </c>
       <c r="AH107">
-        <f t="shared" si="0"/>
-        <v>0.94768899999999989</v>
+        <f t="shared" si="1"/>
+        <v>0.92753499999999989</v>
       </c>
       <c r="AI107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>14.497446999999999</v>
       </c>
     </row>
-    <row r="108" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <f t="shared" si="12"/>
+        <v>37741136</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="13"/>
+        <v>0.60483900000000002</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="14"/>
+        <v>11.481571000000001</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="15"/>
+        <v>43749428</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="16"/>
+        <v>0.60494799999999993</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="17"/>
+        <v>12.48686</v>
+      </c>
       <c r="AG108">
-        <f>AF49</f>
+        <f t="shared" si="29"/>
         <v>74254869</v>
       </c>
       <c r="AH108">
-        <f t="shared" si="0"/>
-        <v>0.96787299999999987</v>
+        <f t="shared" si="1"/>
+        <v>0.94771899999999987</v>
       </c>
       <c r="AI108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>14.656174999999999</v>
       </c>
     </row>
-    <row r="109" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <f t="shared" si="12"/>
+        <v>37761298</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="13"/>
+        <v>0.62499700000000002</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="14"/>
+        <v>11.481571000000001</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="15"/>
+        <v>43769589</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="16"/>
+        <v>0.62510999999999994</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="17"/>
+        <v>12.910138</v>
+      </c>
       <c r="AG109">
-        <f>AF50</f>
+        <f t="shared" si="29"/>
         <v>74275053</v>
       </c>
       <c r="AH109">
-        <f t="shared" si="0"/>
-        <v>0.98802999999999985</v>
+        <f t="shared" si="1"/>
+        <v>0.96787599999999985</v>
       </c>
       <c r="AI109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>14.603256999999999</v>
       </c>
     </row>
-    <row r="110" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <f t="shared" si="12"/>
+        <v>37781456</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="13"/>
+        <v>0.64515500000000003</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="14"/>
+        <v>11.746109000000001</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="15"/>
+        <v>43789751</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="16"/>
+        <v>0.64525999999999994</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="17"/>
+        <v>12.857224</v>
+      </c>
       <c r="AG110">
-        <f>AF51</f>
+        <f t="shared" si="29"/>
         <v>74295210</v>
       </c>
       <c r="AH110">
-        <f t="shared" si="0"/>
-        <v>1.0081889999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.98803499999999989</v>
       </c>
       <c r="AI110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>14.814878</v>
       </c>
     </row>
-    <row r="111" spans="33:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <f t="shared" si="12"/>
+        <v>37801614</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="13"/>
+        <v>0.66531499999999999</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="14"/>
+        <v>10.423349999999999</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="15"/>
+        <v>43809901</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="16"/>
+        <v>0.6654159999999999</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="17"/>
+        <v>12.539762</v>
+      </c>
       <c r="AG111">
-        <f>AF52</f>
+        <f t="shared" si="29"/>
         <v>74315369</v>
       </c>
       <c r="AI111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>15.132379999999999</v>
       </c>
     </row>
-    <row r="113" spans="34:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <f t="shared" si="12"/>
+        <v>37821774</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="13"/>
+        <v>0.68548399999999998</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="14"/>
+        <v>11.851933000000001</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="15"/>
+        <v>43830057</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="16"/>
+        <v>0.68559899999999985</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="17"/>
+        <v>12.592668</v>
+      </c>
+    </row>
+    <row r="113" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <f t="shared" si="12"/>
+        <v>37841943</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="13"/>
+        <v>0.70564300000000002</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="14"/>
+        <v>11.640288</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="15"/>
+        <v>43850240</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="16"/>
+        <v>0.70577999999999985</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="17"/>
+        <v>12.645567</v>
+      </c>
       <c r="AH113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI113">
         <f>AVERAGE(AI83:AI111)</f>
         <v>14.714564655172415</v>
       </c>
     </row>
-    <row r="114" spans="34:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <f t="shared" si="12"/>
+        <v>37862102</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="13"/>
+        <v>0.72580299999999998</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="14"/>
+        <v>11.957746999999999</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="15"/>
+        <v>43870421</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="16"/>
+        <v>0.72594999999999987</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="17"/>
+        <v>12.751412</v>
+      </c>
       <c r="AH114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI114">
         <f>AI113*0.63</f>
         <v>9.2701757327586218</v>
+      </c>
+    </row>
+    <row r="115" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <f t="shared" si="12"/>
+        <v>37882262</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="13"/>
+        <v>0.74599599999999999</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="14"/>
+        <v>11.587376000000001</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="15"/>
+        <v>43890591</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="16"/>
+        <v>0.74611199999999989</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="17"/>
+        <v>12.592662000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <f t="shared" si="12"/>
+        <v>37902455</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="13"/>
+        <v>0.76615100000000003</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="14"/>
+        <v>11.428637</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="15"/>
+        <v>43910753</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="16"/>
+        <v>0.76626899999999987</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="17"/>
+        <v>12.698496</v>
+      </c>
+    </row>
+    <row r="117" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C117">
+        <f t="shared" si="12"/>
+        <v>37922610</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="13"/>
+        <v>0.78630900000000004</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="14"/>
+        <v>11.428654999999999</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="15"/>
+        <v>43930910</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="16"/>
+        <v>0.78642299999999987</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="17"/>
+        <v>12.539744000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <f t="shared" si="12"/>
+        <v>37942768</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="13"/>
+        <v>0.80647500000000005</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="14"/>
+        <v>11.746119999999999</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="15"/>
+        <v>43951064</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="16"/>
+        <v>0.80657799999999991</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="17"/>
+        <v>12.486815</v>
+      </c>
+    </row>
+    <row r="119" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <f t="shared" si="12"/>
+        <v>37962934</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="13"/>
+        <v>0.82663300000000006</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="14"/>
+        <v>11.799037999999999</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="15"/>
+        <v>43971219</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="16"/>
+        <v>0.82673999999999992</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="17"/>
+        <v>12.592649</v>
+      </c>
+    </row>
+    <row r="120" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <f t="shared" si="12"/>
+        <v>37983092</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="13"/>
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="14"/>
+        <v>11.799026</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="15"/>
+        <v>43991381</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="16"/>
+        <v>0.84690599999999994</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="17"/>
+        <v>12.539768</v>
+      </c>
+    </row>
+    <row r="121" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C121">
+        <f t="shared" si="12"/>
+        <v>38003249</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="13"/>
+        <v>0.86694500000000008</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="14"/>
+        <v>11.904847999999999</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="15"/>
+        <v>44011547</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="16"/>
+        <v>0.86705999999999994</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="17"/>
+        <v>10.899544000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C122">
+        <f t="shared" si="12"/>
+        <v>38023404</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="13"/>
+        <v>0.88709800000000005</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="14"/>
+        <v>11.904847999999999</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="15"/>
+        <v>44031701</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="16"/>
+        <v>0.88721599999999989</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="17"/>
+        <v>12.592649</v>
+      </c>
+    </row>
+    <row r="123" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C123">
+        <f t="shared" si="12"/>
+        <v>38043557</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="13"/>
+        <v>0.90725100000000003</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="14"/>
+        <v>11.693192</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="15"/>
+        <v>44051857</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="16"/>
+        <v>0.90737599999999985</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="17"/>
+        <v>12.486863</v>
+      </c>
+    </row>
+    <row r="124" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C124">
+        <f t="shared" si="12"/>
+        <v>38063710</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="13"/>
+        <v>0.92741700000000005</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="14"/>
+        <v>11.587358</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="15"/>
+        <v>44072017</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="16"/>
+        <v>0.92753399999999986</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="17"/>
+        <v>12.433934000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C125">
+        <f t="shared" si="12"/>
+        <v>38083876</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="13"/>
+        <v>0.94756800000000008</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="15"/>
+        <v>44092175</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="16"/>
+        <v>0.94768799999999986</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="17"/>
+        <v>12.169409</v>
+      </c>
+    </row>
+    <row r="126" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C126">
+        <f t="shared" si="12"/>
+        <v>38104027</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="13"/>
+        <v>0.96771800000000008</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="14"/>
+        <v>11.693192</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="15"/>
+        <v>44112329</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="16"/>
+        <v>0.96785699999999986</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="17"/>
+        <v>11.322832</v>
+      </c>
+    </row>
+    <row r="127" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C127">
+        <f t="shared" si="12"/>
+        <v>38124177</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="13"/>
+        <v>0.98788100000000012</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="14"/>
+        <v>11.640286</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="15"/>
+        <v>44132498</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="16"/>
+        <v>0.9880469999999999</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="17"/>
+        <v>12.328148000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="3:35" x14ac:dyDescent="0.35">
+      <c r="C128">
+        <f t="shared" si="12"/>
+        <v>38144340</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="14"/>
+        <v>11.481547000000001</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="15"/>
+        <v>44152688</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="16"/>
+        <v>-43.164640999999996</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="17"/>
+        <v>10.423325999999999</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/dataSeveralAnal.xlsx
+++ b/CSV/dataSeveralAnal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditte\aauRepo\esd7_git\3Dprinter-BLDC-control\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF61BB2-89A5-4FF4-9741-35E1C5EC335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53972EF4-1317-442B-8281-8EB37DA9AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C07BAF3-E74C-422E-BC89-5E0FDF503FC7}"/>
   </bookViews>
@@ -143,10 +143,10 @@
     <t>tau</t>
   </si>
   <si>
-    <t>Analog</t>
+    <t>MOSFET</t>
   </si>
   <si>
-    <t>MOSFET</t>
+    <t>Power Suply</t>
   </si>
 </sst>
 </file>
@@ -7563,7 +7563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7990,7 +7990,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8112,7 +8112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8828,7 +8828,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Speed to Voltage</a:t>
+              <a:t>Voltage to Speed</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8869,10 +8869,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12562364846487964"/>
-          <c:y val="0.18879698401304063"/>
-          <c:w val="0.83741362612585468"/>
-          <c:h val="0.62862223634519243"/>
+          <c:x val="8.6925171947453056E-2"/>
+          <c:y val="0.15080735398874653"/>
+          <c:w val="0.8734828291303629"/>
+          <c:h val="0.68168050008404102"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9055,7 +9055,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0E1-47FF-BD29-610D10D8899F}"/>
+              <c16:uniqueId val="{00000000-F60D-4A80-8EC8-E6F4A41B7BBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9068,7 +9068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Analog</c:v>
+                  <c:v>Power Suply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9206,7 +9206,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0E1-47FF-BD29-610D10D8899F}"/>
+              <c16:uniqueId val="{00000001-F60D-4A80-8EC8-E6F4A41B7BBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9218,11 +9218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="848654767"/>
-        <c:axId val="848655727"/>
+        <c:axId val="2068217391"/>
+        <c:axId val="243662255"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="848654767"/>
+        <c:axId val="2068217391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9268,14 +9268,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.43024835043405829"/>
-              <c:y val="0.88904514122291345"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9342,12 +9334,12 @@
             <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="848655727"/>
+        <c:crossAx val="243662255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="848655727"/>
+        <c:axId val="243662255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9388,8 +9380,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Speed [rad/s]</a:t>
+                  <a:t>Speed</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [rad/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9459,7 +9456,7 @@
             <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="848654767"/>
+        <c:crossAx val="2068217391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9473,40 +9470,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6876387148694012"/>
-          <c:y val="5.2412134208794578E-2"/>
-          <c:w val="0.24808714055910461"/>
-          <c:h val="8.263903214922641E-2"/>
+          <c:x val="0.6887617101760577"/>
+          <c:y val="3.5659280428223493E-2"/>
+          <c:w val="0.31123825873022903"/>
+          <c:h val="6.9541013863164691E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13695,22 +13666,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>367673</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>137504</xdr:rowOff>
+      <xdr:colOff>371783</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>82755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>47821</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>166456</xdr:rowOff>
+      <xdr:colOff>41639</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>166558</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB25D03C-BD8B-5005-EBAE-6F3EFE4B399B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427C1825-D879-08E3-ED06-BDAF00E9C42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14050,11 +14021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF7DDC-DF0B-494E-A3F5-5B78F9E0E08D}">
   <dimension ref="A1:BN128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="52" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="Y103" sqref="Y103"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="61" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -21279,10 +21253,10 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" t="s">
         <v>37</v>
-      </c>
-      <c r="M57" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.35">
@@ -21784,7 +21758,7 @@
         <v>4.0316999999999999E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E79:E128" si="14">O4</f>
+        <f t="shared" ref="E80:E128" si="14">O4</f>
         <v>3.5449950000000001</v>
       </c>
       <c r="P80">
@@ -22274,7 +22248,7 @@
         <v>11.058282999999999</v>
       </c>
       <c r="AG93">
-        <f t="shared" ref="AG93:AG124" si="29">AF34</f>
+        <f t="shared" ref="AG93:AG111" si="29">AF34</f>
         <v>73952400</v>
       </c>
       <c r="AH93">
@@ -22526,7 +22500,7 @@
         <v>32</v>
       </c>
       <c r="I99">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="P99">
         <f t="shared" si="15"/>
